--- a/media/output_adgroup_build.xlsx
+++ b/media/output_adgroup_build.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,11 +513,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>büro linz jobs</t>
+          <t>gemeinde mistelbach jobs</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1604</v>
+        <v>397</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -531,11 +531,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gemeinde mistelbach jobs</t>
+          <t>aktuelle jobs niederösterreich</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397</v>
+        <v>1820</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -549,11 +549,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>aktuelle jobs niederösterreich</t>
+          <t>büro linz jobs</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1820</v>
+        <v>1604</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -567,11 +567,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tankstelle jobs wien</t>
+          <t>freie jobs bezirk freistadt teilzeit</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -585,11 +585,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>transporter fahrer jobs wien</t>
+          <t>büro jobs zwettl</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -603,11 +603,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schicht arbeit jobs frauen wien</t>
+          <t>tankstelle jobs wien</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1201</v>
+        <v>469</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -621,11 +621,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geringfügig jobs wien security</t>
+          <t>shape line jobs 1130</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>530</v>
+        <v>406</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -639,11 +639,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>büro jobs zwettl</t>
+          <t>schicht arbeit jobs frauen wien</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>547</v>
+        <v>1201</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -801,11 +801,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wiener neustadt büro jobs</t>
+          <t>omv job wiener neustadt wien</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1414</v>
+        <v>355</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>teilzeit jobs wien büro</t>
+          <t>wiener neustadt büro jobs</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438</v>
+        <v>1414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -837,11 +837,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bezirk mistelbach job</t>
+          <t>teilzeit jobs wien büro</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>804</v>
+        <v>438</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -855,11 +855,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>neunkirchen gemeinde job</t>
+          <t>bezirk mistelbach job</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>418</v>
+        <v>804</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -909,11 +909,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>wutschka melk job</t>
+          <t>neunkirchen gemeinde job</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -927,11 +927,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>zahnarzt stellenangebote wien</t>
+          <t>wutschka melk job</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -945,11 +945,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>shape line jobs 1130</t>
+          <t>jobs in der steiermark gesucht</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -963,11 +963,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>freie stwllwn qien</t>
+          <t>jobs in wels ohne ausbildung</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>882</v>
+        <v>461</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -981,11 +981,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jons in wien</t>
+          <t>offens stellen in klosterneuburg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>441</v>
+        <v>730</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>offene lehrstellen wien als friseur</t>
+          <t>jons in wien</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1017,11 +1017,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lehrstellen elektrotechnik wien</t>
+          <t>amazon jobs in wien</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1496</v>
+        <v>363</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1035,11 +1035,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jobs in der steiermark gesucht</t>
+          <t>jobsuche schwarzdecker</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>463</v>
+        <v>1543</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1053,15 +1053,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1543</v>
+        <v>1496</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1071,15 +1071,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>freie jobs bezirk freistadt teilzeit</t>
+          <t>offene lehrstellen wien als friseur</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1089,15 +1089,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bürokauffrau jobs wien 1210</t>
+          <t>zahnarzt stellenangebote wien</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874</v>
+        <v>399</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1107,15 +1107,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>jobs experts wr neustadt</t>
+          <t>jobangebote grünau wien</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>978</v>
+        <v>355</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1125,15 +1125,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>amazon jobs in wien</t>
+          <t>bürokauffrau jobs wien 1210</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>363</v>
+        <v>874</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1143,15 +1143,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>samstagjob in wiener neustadt</t>
+          <t>transporter fahrer jobs wien</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373</v>
+        <v>522</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1161,15 +1161,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>jobs in wels ohne ausbildung</t>
+          <t>geringfügig jobs wien security</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1179,15 +1179,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>jobsuche lehrstelle zahnarzt vorarlberg</t>
+          <t>samstagjob in wiener neustadt</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1197,15 +1197,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>offens stellen in klosterneuburg</t>
+          <t>jobs experts wr neustadt</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>730</v>
+        <v>978</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1215,15 +1215,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>offene stellen reinigungskräfte salzburg</t>
+          <t>jobsuche lehrstelle zahnarzt vorarlberg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1074</v>
+        <v>355</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>jobsuche schwarzdecker</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1251,11 +1251,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>jobangebote grünau</t>
+          <t>freie stwllwn qien</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>356</v>
+        <v>882</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1269,11 +1269,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>stockerau aktuelle jobangebote</t>
+          <t>jobangebote grünau</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>490</v>
+        <v>356</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1305,11 +1305,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hofer inline bewerbung</t>
+          <t>stockerau aktuelle jobangebote</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>381</v>
+        <v>490</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1323,11 +1323,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>lager stelkenangebote stockerau</t>
+          <t>offene stellen reinigungskräfte salzburg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>503</v>
+        <v>1074</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1341,90 +1341,126 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>peek an cloppenburg donauzentrum lehrstelle</t>
+          <t>hofer inline bewerbung</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>918</v>
+        <v>381</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>peek an cloppenburg donauzentrum lehrstelle</t>
+          <t>www jobbörse niederösterreich vollzeit</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lehre linz land</t>
+          <t>lager stelkenangebote stockerau</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>734</v>
+        <v>503</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>lehre linz land</t>
+          <t>www jobbörse niederösterreich vollzeit</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>lehrstellen steiermark leibnitz</t>
+          <t>peek an cloppenburg donauzentrum lehrstelle</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>579</v>
+        <v>918</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>lehrstellen steiermark leibnitz</t>
+          <t>peek an cloppenburg donauzentrum lehrstelle</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>arbeitsplätze kantine</t>
+          <t>lehre linz land</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>478</v>
+        <v>734</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>arbeitsplätze kantine</t>
+          <t>lehre linz land</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>lehrstellen steiermark leibnitz</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>579</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>lehrstellen steiermark leibnitz</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>arbeitsplätze kantine</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>478</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>arbeitsplätze kantine</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>lehrstelle restaurantfachfrau linz</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B57" t="n">
         <v>392</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>lehrstelle restaurantfachfrau linz</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D57" t="n">
         <v>12</v>
       </c>
     </row>
